--- a/ml/data/merged.xlsx
+++ b/ml/data/merged.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FOOD COMMODITY GROUP</t>
+          <t>food_group</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Food commodity ITEM</t>
+          <t>food_item</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Carbon Footprint kg CO2eq/kg or l of food ITEM</t>
+          <t>co2_footprint_kg</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CO2 Footprint Uncertainty</t>
+          <t>co2_footprint_uncertainty</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Water Footprint Uncertainty</t>
+          <t>water_footprint_uncertainty</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BEER IN CAN</t>
+          <t>beer_in_can</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BEER IN GLASS</t>
+          <t>beer_in_glass</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BEER MODULAR CAN</t>
+          <t>beer_modular_can</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHOCOLATE OR CREAM FILLED COOKIES**</t>
+          <t>chocolate_or_cream_filled_cookies</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SIMPLE COOKIES**</t>
+          <t>simple_cookies</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MINERAL WATER*</t>
+          <t>mineral_water</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BREAD MULTICEREAL**</t>
+          <t>bread_multicereal</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BREAD PLAIN**</t>
+          <t>bread_plain</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BREAD WHOLE**</t>
+          <t>bread_whole</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BREAD FROZEN (F)*</t>
+          <t>bread_frozen_(f)</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CORNFLAKES*</t>
+          <t>cornflakes</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DARK CHOCOLATE</t>
+          <t>dark_chocolate</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MILK CHOCOLATE</t>
+          <t>milk_chocolate</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COFFEE GROUND</t>
+          <t>coffee_ground</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COFFEE PARCHMENT</t>
+          <t>coffee_parchment</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COFFEE DRIP FILTERED (L)</t>
+          <t>coffee_drip_filtered_(l)</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COFFEE SOLUBLE POWDER (L)</t>
+          <t>coffee_soluble_powder_(l)</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESPRESSO (L)</t>
+          <t>espresso_(l)</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FLAVORED CRACKERS**</t>
+          <t>flavored_crackers</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLAIN CRACKERS**</t>
+          <t>plain_crackers</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WHOLEGRAIN CRACKERS**</t>
+          <t>wholegrain_crackers</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CRISPBREAD**</t>
+          <t>crispbread</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KETCHUP</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAYONNAISE</t>
+          <t>mayonnaise</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TEMPE'</t>
+          <t>tempe'</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EGG PASTA*</t>
+          <t>egg_pasta</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RASPBERRIES (F)*</t>
+          <t>raspberries_(f)</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>APPLE JUICE (I)</t>
+          <t>apple_juice_(i)</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BLUEBERRY JUICE (I)</t>
+          <t>blueberry_juice_(i)</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CRANBERRY JUICE (I)</t>
+          <t>cranberry_juice_(i)</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FIG JUICE (I)</t>
+          <t>fig_juice_(i)</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KIWI JUICE (I)</t>
+          <t>kiwi_juice_(i)</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MANGO JUICE (I)</t>
+          <t>mango_juice_(i)</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PINEAPPLE JUICE (I)</t>
+          <t>pineapple_juice_(i)</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>STRAWBERRY JUICE (I)</t>
+          <t>strawberry_juice_(i)</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ORANGE JUICE</t>
+          <t>orange_juice</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PEAR JUICE</t>
+          <t>pear_juice</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BUCKWHEAT FLOUR</t>
+          <t>buckwheat_flour</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DURUM WHEAT</t>
+          <t>durum_wheat</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GRAHAM FLOUR</t>
+          <t>graham_flour</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MAIZE FLOUR</t>
+          <t>maize_flour</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MILLET FLOUR</t>
+          <t>millet_flour</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OAT MEAL</t>
+          <t>oat_meal</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SORGHUM FLOUR</t>
+          <t>sorghum_flour</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WHEAT PLAIN FLOUR</t>
+          <t>wheat_plain_flour</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WHOLE WHEAT FLOUR</t>
+          <t>whole_wheat_flour</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CHOCOLATE</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ICE CREAM</t>
+          <t>ice_cream</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VANILLA</t>
+          <t>vanilla</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AZUKI BEAN FLOUR</t>
+          <t>azuki_bean_flour</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MUNG BEAN FLOUR</t>
+          <t>mung_bean_flour</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOY MEAL</t>
+          <t>soy_meal</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BEANS IN CAN</t>
+          <t>beans_in_can</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GREEN BEANS IN CAN</t>
+          <t>green_beans_in_can</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BEANS (F)</t>
+          <t>beans_(f)</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GREEN BEANS (F)</t>
+          <t>green_beans_(f)</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARGARINE*</t>
+          <t>margarine</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ALMOND COVERED WITH CHOCOLATE</t>
+          <t>almond_covered_with_chocolate</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HAZELNUT COVERED WITH CHOCOLATE</t>
+          <t>hazelnut_covered_with_chocolate</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ALMOND PASTE</t>
+          <t>almond_paste</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HAZELNUT CREAM</t>
+          <t>hazelnut_cream</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HAZELNUT PASTE</t>
+          <t>hazelnut_paste</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PEANUT BUTTER</t>
+          <t>peanut_butter</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PEANUT PASTE</t>
+          <t>peanut_paste</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OLIVE OIL</t>
+          <t>olive_oil</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PALM OIL</t>
+          <t>palm_oil</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PEANUT OIL</t>
+          <t>peanut_oil</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RAPESEED OIL</t>
+          <t>rapeseed_oil</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOYBEAN OIL</t>
+          <t>soybean_oil</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SUNFLOWER OIL</t>
+          <t>sunflower_oil</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PASTA*</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PESTO</t>
+          <t>pesto</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PESTO WITHOUT GARLIC</t>
+          <t>pesto_without_garlic</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BEET SUGAR</t>
+          <t>beet_sugar</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CANE SUGAR</t>
+          <t>cane_sugar</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CAKES AND CROISSANT**</t>
+          <t>cakes_and_croissant</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COCOA CAKES AND CROISSANT**</t>
+          <t>cocoa_cakes_and_croissant</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TOMATO CHOPPED</t>
+          <t>tomato_chopped</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TOMATO PEELED</t>
+          <t>tomato_peeled</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TOMATO PUREE</t>
+          <t>tomato_puree</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TOMATO &amp; BASIL</t>
+          <t>tomato_&amp;_basil</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TOMATO ARRABBIATA</t>
+          <t>tomato_arrabbiata</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CARROTS CANNED</t>
+          <t>carrots_canned</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CORN CANNED</t>
+          <t>corn_canned</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CARROTS (F)</t>
+          <t>carrots_(f)</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ZUCCHINI (F)</t>
+          <t>zucchini_(f)</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SOY CREAM*</t>
+          <t>soy_cream</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ALMOND MILK</t>
+          <t>almond_milk</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>COCONUT MILK</t>
+          <t>coconut_milk</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RICE MILK</t>
+          <t>rice_milk</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SOY MILK</t>
+          <t>soy_milk</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>QUORNE</t>
+          <t>quorne</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SOY BURGER</t>
+          <t>soy_burger</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TOFU</t>
+          <t>tofu</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SOY YOGURT*</t>
+          <t>soy_yogurt</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>WINE RED</t>
+          <t>wine_red</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WINE WHITE</t>
+          <t>wine_white</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>YEAST COMPRESSED*</t>
+          <t>yeast_compressed</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>YEAST DRIED*</t>
+          <t>yeast_dried</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>YEAST LIQUID*</t>
+          <t>yeast_liquid</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BEEF BONE FREE MEAT*</t>
+          <t>beef_bone_free_meat</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BEEF MEAT WITH BONE*</t>
+          <t>beef_meat_with_bone</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BUFFALO BONE FREE MEAT*</t>
+          <t>buffalo_bone_free_meat</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BUTTER*</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CREAM</t>
+          <t>cream</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MASCARPONE</t>
+          <t>mascarpone</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MOZZARELLA</t>
+          <t>mozzarella</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>RICOTTA</t>
+          <t>ricotta</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>STRACCHINO</t>
+          <t>stracchino</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ASIAGO</t>
+          <t>asiago</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CAMEMBERT</t>
+          <t>camembert</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CEDDAR</t>
+          <t>ceddar</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CHEESE</t>
+          <t>cheese</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CHEESE SEMI-HARD</t>
+          <t>cheese_semi-hard</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EMMENTAL</t>
+          <t>emmental</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GOAT CHEESE</t>
+          <t>goat_cheese</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GRANA PADANO</t>
+          <t>grana_padano</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PARMIGIANO REGGIANO</t>
+          <t>parmigiano_reggiano</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PECORINO</t>
+          <t>pecorino</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MEALWORMS*</t>
+          <t>mealworms</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EGGS*</t>
+          <t>eggs</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HONEY*</t>
+          <t>honey</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KANGAROO MEAT*</t>
+          <t>kangaroo_meat</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LAMB BONE FREE MEAT*</t>
+          <t>lamb_bone_free_meat</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LAMB MEAT WITH BONE*</t>
+          <t>lamb_meat_with_bone</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BUFFALO MILK</t>
+          <t>buffalo_milk</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>COW MILK</t>
+          <t>cow_milk</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GOAT MILK</t>
+          <t>goat_milk</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PORK BONE FREE MEAT*</t>
+          <t>pork_bone_free_meat</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BACON</t>
+          <t>bacon</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NECK</t>
+          <t>neck</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PORK HAM</t>
+          <t>pork_ham</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PORK SAUSAGES</t>
+          <t>pork_sausages</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PORK MEAT WITH BONE*</t>
+          <t>pork_meat_with_bone</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CHICKEN BONE FREE MEAT</t>
+          <t>chicken_bone_free_meat</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EMU BONE FREE MEAT</t>
+          <t>emu_bone_free_meat</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DUCK MEAT BONE FREE*</t>
+          <t>duck_meat_bone_free</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TURKEY MEAT BONE FREE</t>
+          <t>turkey_meat_bone_free</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CHICKEN MEAT WITH BONE</t>
+          <t>chicken_meat_with_bone</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DUCK MEAT WITH BONE*</t>
+          <t>duck_meat_with_bone</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TURKEY MEAT WITH BONE</t>
+          <t>turkey_meat_with_bone</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RABBIT MEAT WITH BONE*</t>
+          <t>rabbit_meat_with_bone</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SNAILS*</t>
+          <t>snails</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>YOGURT FLAVOURED**</t>
+          <t>yogurt_flavoured</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>YOGURT LACTOSE FREE</t>
+          <t>yogurt_lactose_free</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>YOGURT WHITE</t>
+          <t>yogurt_white</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>COFFEE GREEN*</t>
+          <t>coffee_green</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>RAISIN</t>
+          <t>raisin</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EXOTIC FRUIT (G)</t>
+          <t>exotic_fruit_(g)</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RASPBERRY (G)</t>
+          <t>raspberry_(g)</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>STRAWBERRY (G)</t>
+          <t>strawberry_(g)</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AVOCADO (I)</t>
+          <t>avocado_(i)</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BANANA (I)</t>
+          <t>banana_(i)</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>COCONUT (I)</t>
+          <t>coconut_(i)</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EXOTIC FRUIT (I)</t>
+          <t>exotic_fruit_(i)</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PINEAPPLE (I)</t>
+          <t>pineapple_(i)</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>POMEGRANATE (I)</t>
+          <t>pomegranate_(i)</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>STRAWBERRY (I)</t>
+          <t>strawberry_(i)</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MELON (g)*</t>
+          <t>melon_(g)</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CLEMENTINE</t>
+          <t>clementine</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LEMON</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LIME</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MANDARIN</t>
+          <t>mandarin</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ORANGE</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>POMELO</t>
+          <t>pomelo</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TANGERIN</t>
+          <t>tangerin</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>APPLE</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>APRICOT</t>
+          <t>apricot</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>AVOCADO</t>
+          <t>avocado</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BANANA</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CARROB</t>
+          <t>carrob</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CHERRY</t>
+          <t>cherry</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>FIG</t>
+          <t>fig</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GRAPES</t>
+          <t>grapes</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GUAVA</t>
+          <t>guava</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>KIWI</t>
+          <t>kiwi</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MANGO</t>
+          <t>mango</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MELON</t>
+          <t>melon</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PEACH</t>
+          <t>peach</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PEAR</t>
+          <t>pear</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PINEAPPLE</t>
+          <t>pineapple</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PLUM</t>
+          <t>plum</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>POMEGRANATE</t>
+          <t>pomegranate</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ROCKMELON</t>
+          <t>rockmelon</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>WATERMELON</t>
+          <t>watermelon</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>OLIVES</t>
+          <t>olives</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>BLACKBERRY</t>
+          <t>blackberry</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BLUEBERRY</t>
+          <t>blueberry</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CRANBERRY</t>
+          <t>cranberry</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CURRANT</t>
+          <t>currant</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>GOOSEBERRY</t>
+          <t>gooseberry</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>RASPBERRY</t>
+          <t>raspberry</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>STRAWBERRY</t>
+          <t>strawberry</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>BARLEY</t>
+          <t>barley</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MAIZE</t>
+          <t>maize</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MILLET</t>
+          <t>millet</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>OAT</t>
+          <t>oat</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>QUINOA</t>
+          <t>quinoa</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RYE</t>
+          <t>rye</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SORGHUM</t>
+          <t>sorghum</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>WHEAT</t>
+          <t>wheat</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BEAN</t>
+          <t>bean</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CHICKPEA</t>
+          <t>chickpea</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>COWPEA</t>
+          <t>cowpea</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>GREEN BEAN (fresh)</t>
+          <t>green_bean_(fresh)</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LENTIL</t>
+          <t>lentil</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>PEA</t>
+          <t>pea</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SOYBEAN</t>
+          <t>soybean</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>GREEN BEAN (fresh) (g)*</t>
+          <t>green_bean_(fresh)_(g)</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MUSHROOM*</t>
+          <t>mushroom</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>ALMOND</t>
+          <t>almond</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CASHEW NUT</t>
+          <t>cashew_nut</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CHESTNUT</t>
+          <t>chestnut</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>HAZELNUT</t>
+          <t>hazelnut</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MIXED NUTS</t>
+          <t>mixed_nuts</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>PALM NUT</t>
+          <t>palm_nut</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PEANUT</t>
+          <t>peanut</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PISTACHIO</t>
+          <t>pistachio</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>WALNUT</t>
+          <t>walnut</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>RICE*</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>RAPE SEED</t>
+          <t>rape_seed</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>SESAM SEED</t>
+          <t>sesam_seed</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SUNFLOWER SEED</t>
+          <t>sunflower_seed</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>CHILLY</t>
+          <t>chilly</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>GINGER</t>
+          <t>ginger</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>POTATO</t>
+          <t>potato</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>STARCHY ROOTS</t>
+          <t>starchy_roots</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SWEET POTATO</t>
+          <t>sweet_potato</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CUCUMBER (G)</t>
+          <t>cucumber_(g)</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>GERKIN (G)</t>
+          <t>gerkin_(g)</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>LETTUCE (G)</t>
+          <t>lettuce_(g)</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PEPPER (G)</t>
+          <t>pepper_(g)</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TOMATO (G)</t>
+          <t>tomato_(g)</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CUCUMBER (g)</t>
+          <t>cucumber_(g)</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>EGGPLANT (g)</t>
+          <t>eggplant_(g)</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>PEPPER (g)</t>
+          <t>pepper_(g)</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>TOMATO (g)</t>
+          <t>tomato_(g)</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ZUCCHINI (g)</t>
+          <t>zucchini_(g)</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>ASPARAGUS</t>
+          <t>asparagus</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CABAGGE</t>
+          <t>cabagge</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>LETTUCE</t>
+          <t>lettuce</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>SPINACH</t>
+          <t>spinach</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>BEETROOT</t>
+          <t>beetroot</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CARROT</t>
+          <t>carrot</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>GARLIC</t>
+          <t>garlic</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>ONION</t>
+          <t>onion</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>RADISH</t>
+          <t>radish</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>SWEDE</t>
+          <t>swede</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>TURNIP</t>
+          <t>turnip</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>ARTICHOKE</t>
+          <t>artichoke</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BROCCOLI</t>
+          <t>broccoli</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>CAULIFLOWER</t>
+          <t>cauliflower</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>CELERY</t>
+          <t>celery</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CUCUMBER</t>
+          <t>cucumber</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>EGGPLANT</t>
+          <t>eggplant</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>FENNEL</t>
+          <t>fennel</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>GERKIN</t>
+          <t>gerkin</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PEPPER</t>
+          <t>pepper</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PUMPKIN</t>
+          <t>pumpkin</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>TOMATO</t>
+          <t>tomato</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>VEGETABLES</t>
+          <t>vegetables</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>ZUCCHINI</t>
+          <t>zucchini</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>ALFONSINO</t>
+          <t>alfonsino</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ANCHOVY</t>
+          <t>anchovy</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>ANGLERFISH</t>
+          <t>anglerfish</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CARP</t>
+          <t>carp</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CATFISH</t>
+          <t>catfish</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIAMOND FISH</t>
+          <t>diamond_fish</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EEL</t>
+          <t>eel</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>FISH MIXED</t>
+          <t>fish_mixed</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>FLATFISH</t>
+          <t>flatfish</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>FLATHEAD</t>
+          <t>flathead</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>FORK BEARD</t>
+          <t>fork_beard</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>HADDOCK</t>
+          <t>haddock</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>HAKE</t>
+          <t>hake</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>HERRING</t>
+          <t>herring</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>LING</t>
+          <t>ling</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MACKEREL</t>
+          <t>mackerel</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MEGRIM</t>
+          <t>megrim</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PILCHARD</t>
+          <t>pilchard</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>PLAICE</t>
+          <t>plaice</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>POLLOCK</t>
+          <t>pollock</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>POMFRET</t>
+          <t>pomfret</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PORBEAGLE</t>
+          <t>porbeagle</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>RHOMBUS</t>
+          <t>rhombus</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ROCK FISH</t>
+          <t>rock_fish</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>SALMON</t>
+          <t>salmon</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SARDINE</t>
+          <t>sardine</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SEA-BASS</t>
+          <t>sea-bass</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SHARK</t>
+          <t>shark</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>SOLE</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>SWARDFISH</t>
+          <t>swardfish</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>TROUT</t>
+          <t>trout</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>TUNA</t>
+          <t>tuna</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>TURBOT</t>
+          <t>turbot</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>WHITING</t>
+          <t>whiting</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>COD (F)</t>
+          <t>cod_(f)</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>FISH STICK (F)</t>
+          <t>fish_stick_(f)</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>HADDOCK (F)</t>
+          <t>haddock_(f)</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>HERRING (F)</t>
+          <t>herring_(f)</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>MACKEREL (F)</t>
+          <t>mackerel_(f)</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>MIXED FISH (F)</t>
+          <t>mixed_fish_(f)</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>POLLOCK (F)</t>
+          <t>pollock_(f)</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>POLLOCK STICK (F)</t>
+          <t>pollock_stick_(f)</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>SALMON (F)</t>
+          <t>salmon_(f)</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SOLE (F)</t>
+          <t>sole_(f)</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>TROUT (F)</t>
+          <t>trout_(f)</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>TUNA (F)</t>
+          <t>tuna_(f)</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>COD FISH STICK</t>
+          <t>cod_fish_stick</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>HAKE FISH STICK</t>
+          <t>hake_fish_stick</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>MAKEREL FISH STICK</t>
+          <t>makerel_fish_stick</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>TUNA IN CAN</t>
+          <t>tuna_in_can</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>BARNACLE</t>
+          <t>barnacle</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>KRILL</t>
+          <t>krill</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>LOBSTER</t>
+          <t>lobster</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>MUSSELS</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>CUTTLEFISH</t>
+          <t>cuttlefish</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>OCTOPUS</t>
+          <t>octopus</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>SQUID</t>
+          <t>squid</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>PRAWNS/SHRIMPS</t>
+          <t>prawns/shrimps</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>OCTOPUS (F)</t>
+          <t>octopus_(f)</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>PRAWNS/SHRIMPS (F)</t>
+          <t>prawns/shrimps_(f)</t>
         </is>
       </c>
       <c r="D325" t="n">
